--- a/Учёба/Документация по предметам/Расписание 1 семестр.xlsx
+++ b/Учёба/Документация по предметам/Расписание 1 семестр.xlsx
@@ -33,48 +33,46 @@
     <t>8:30-10:00</t>
   </si>
   <si>
-    <t>Алгебра л. (231) Белова</t>
+    <t>Алгебра л. (231) Белова Ольга Олеговна</t>
   </si>
   <si>
     <t>10:10-11:40</t>
   </si>
   <si>
-    <t>Матанализ пр. (208) Кулешов</t>
+    <t>Матанализ пр. (208) Кулешов Артур Владимирович</t>
   </si>
   <si>
     <t>11:50-13:20</t>
   </si>
   <si>
-    <t>Английский (220/218) Шабашева</t>
+    <t>Английский (220/218) Шабашева Евгения Александровна</t>
   </si>
   <si>
     <t>13:50-15:20</t>
   </si>
   <si>
-    <t>Геометрия пр. (231) Ставицкая</t>
+    <t>Геометрия пр. (231) Ставицкая Екатерина Петровна</t>
   </si>
   <si>
     <t>15:30-17:00</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">в/н Стратегии л-п развития (205) Минкова; н/н Философия пр. (118) </t>
+      <t>в/н Стратегии л-п развития (205) Минкова Екатери</t>
     </r>
     <r>
       <rPr>
         <rFont val="XO Thames"/>
-        <b val="true"/>
+        <b val="false"/>
         <sz val="12"/>
       </rPr>
-      <t>с 21.11</t>
+      <t>на Семёнова</t>
     </r>
   </si>
   <si>
     <t>17:10-18:40</t>
   </si>
-  <si>
-    <t>Физкультура Генералова</t>
-  </si>
+  <si/>
   <si>
     <t>Вторник</t>
   </si>
@@ -83,28 +81,31 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Философия пр. (101) </t>
+      <t xml:space="preserve">Философия пр. </t>
     </r>
     <r>
       <rPr>
         <rFont val="XO Thames"/>
-        <b val="true"/>
+        <b val="false"/>
         <sz val="12"/>
       </rPr>
-      <t>с 12.11</t>
-    </r>
-  </si>
-  <si>
-    <t>Матанализ л. (231) Семенов</t>
-  </si>
-  <si>
-    <t>н/н Английский (218) Шабашева</t>
-  </si>
-  <si>
-    <t>Алгебра пр. (205) Солдатенко</t>
-  </si>
-  <si>
-    <t>Геометрия л. (231) Кулешов</t>
+      <t>Сабанов Александр</t>
+    </r>
+  </si>
+  <si>
+    <t>Матанализ л. (231) Семенов Владимир Иосифович</t>
+  </si>
+  <si>
+    <t>Философия пр. Сабанов Александр</t>
+  </si>
+  <si>
+    <t>н/н Английский (218) Шабашева Евгения Александровна</t>
+  </si>
+  <si>
+    <t>Алгебра пр. (205) Солдатенко Татьяна Алексеевна</t>
+  </si>
+  <si>
+    <t>Геометрия л. (231) Кулешов Артур Владимирович</t>
   </si>
   <si>
     <t>Среда</t>
@@ -113,23 +114,13 @@
     <t>Суббота</t>
   </si>
   <si>
-    <t>Основы программирования (230) Тарачков</t>
-  </si>
-  <si>
-    <t>Основы программирования (233) Тарачков</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ОРГ (118) Кускашев </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <b val="true"/>
-        <sz val="12"/>
-      </rPr>
-      <t>с 28.09</t>
-    </r>
+    <t>Основы программирования (230) Тарачков Михаил Владимирович</t>
+  </si>
+  <si>
+    <t>Основы программирования (233) Тарачков Михаил Владимирович</t>
+  </si>
+  <si>
+    <t>ОРГ (118) Кускашев Дмитрий Валерьевич</t>
   </si>
   <si>
     <r>
@@ -206,14 +197,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="XO Thames"/>
-      <sz val="12"/>
     </font>
     <font>
       <name val="XO Thames"/>
@@ -259,11 +246,10 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false"/>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="2" fontId="2" quotePrefix="false"/>
-    <xf applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="2" quotePrefix="false"/>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1" fillId="2" fontId="1" quotePrefix="false"/>
+    <xf applyBorder="true" applyFont="true" borderId="1" fillId="0" fontId="1" quotePrefix="false"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -276,8 +262,8 @@
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
   <xdr:absoluteAnchor>
-    <xdr:pos x="10658473" y="85724"/>
-    <xdr:ext cx="2133600" cy="4362449"/>
+    <xdr:pos x="12334873" y="-66674"/>
+    <xdr:ext cx="2133600" cy="4362448"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr hidden="false" id="1" name="Picture 1"/>
@@ -408,16 +394,19 @@
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -509,404 +498,406 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
   <cols>
-    <col customWidth="true" hidden="false" max="1" min="1" outlineLevel="0" style="1" width="3.59201785988879"/>
-    <col customWidth="true" hidden="false" max="2" min="2" outlineLevel="0" style="1" width="42.0399073172324"/>
-    <col bestFit="true" customWidth="true" max="3" min="3" outlineLevel="0" style="1" width="10.7884703773945"/>
-    <col customWidth="true" hidden="false" max="4" min="4" outlineLevel="0" style="1" width="3.97871280437437"/>
-    <col customWidth="true" hidden="false" max="5" min="5" outlineLevel="0" style="1" width="71.8403517844579"/>
-    <col customWidth="true" hidden="false" max="6" min="6" outlineLevel="0" style="1" width="11.8403551677816"/>
+    <col customWidth="true" hidden="false" max="1" min="1" outlineLevel="0" style="0" width="3.59201785988879"/>
+    <col customWidth="true" hidden="false" max="2" min="2" outlineLevel="0" style="0" width="63.4589767780508"/>
+    <col bestFit="true" customWidth="true" max="3" min="3" outlineLevel="0" style="0" width="10.7884703773945"/>
+    <col customWidth="true" hidden="false" max="4" min="4" outlineLevel="0" style="0" width="3.97871280437437"/>
+    <col customWidth="true" hidden="false" max="5" min="5" outlineLevel="0" style="0" width="71.8403517844579"/>
+    <col customWidth="true" hidden="false" max="6" min="6" outlineLevel="0" style="0" width="11.8403551677816"/>
     <col bestFit="true" customWidth="true" max="16384" min="7" outlineLevel="0" style="0" width="10.7884703773945"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="n"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="n"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="16.4999923706055" outlineLevel="0" r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="s">
+      <c r="A7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2" t="n"/>
+      <c r="F8" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="n">
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="A12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="s">
+      <c r="D14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="n"/>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="s">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="2" t="n"/>
+      <c r="C15" s="1" t="n"/>
+      <c r="D15" s="1" t="n"/>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3" t="n">
+      <c r="B16" s="2" t="n"/>
+      <c r="C16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3" t="n">
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="D19" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="n"/>
+      <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="3" t="s">
+      <c r="D21" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="23">
-      <c r="B23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="1" t="s"/>
-      <c r="D23" s="1" t="s"/>
-      <c r="E23" s="1" t="s"/>
-      <c r="F23" s="1" t="s"/>
-      <c r="G23" s="1" t="s"/>
-      <c r="H23" s="1" t="s"/>
-      <c r="I23" s="1" t="s"/>
-      <c r="J23" s="1" t="s"/>
+      <c r="B23" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="0" t="s"/>
+      <c r="D23" s="0" t="s"/>
+      <c r="E23" s="0" t="s"/>
+      <c r="F23" s="0" t="s"/>
+      <c r="G23" s="0" t="s"/>
+      <c r="H23" s="0" t="s"/>
+      <c r="I23" s="0" t="s"/>
+      <c r="J23" s="0" t="s"/>
     </row>
     <row outlineLevel="0" r="24">
-      <c r="B24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="1" t="s"/>
-      <c r="D24" s="1" t="s"/>
-      <c r="E24" s="1" t="s"/>
-      <c r="F24" s="1" t="s"/>
-      <c r="G24" s="1" t="s"/>
-      <c r="H24" s="1" t="s"/>
-      <c r="I24" s="1" t="s"/>
-      <c r="J24" s="1" t="s"/>
+      <c r="B24" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="0" t="s"/>
+      <c r="D24" s="0" t="s"/>
+      <c r="E24" s="0" t="s"/>
+      <c r="F24" s="0" t="s"/>
+      <c r="G24" s="0" t="s"/>
+      <c r="H24" s="0" t="s"/>
+      <c r="I24" s="0" t="s"/>
+      <c r="J24" s="0" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">
